--- a/4_aviation/modal_share/data/data.xlsx
+++ b/4_aviation/modal_share/data/data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/modal_share/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0312D927-8F56-6F42-BEAB-26F5375EF765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844AB18-6295-1E47-8497-7566EEEFD134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{3D3106B3-D52F-F549-8C18-189FCB3EBB1B}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="3" xr2:uid="{3D3106B3-D52F-F549-8C18-189FCB3EBB1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="freight" sheetId="1" r:id="rId1"/>
+    <sheet name="Japan" sheetId="2" r:id="rId2"/>
+    <sheet name="EU" sheetId="3" r:id="rId3"/>
+    <sheet name="USA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
   <si>
     <t>country</t>
   </si>
@@ -70,13 +72,82 @@
   </si>
   <si>
     <t>CH</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>100-200</t>
+  </si>
+  <si>
+    <t>200-300</t>
+  </si>
+  <si>
+    <t>300-500</t>
+  </si>
+  <si>
+    <t>500-700</t>
+  </si>
+  <si>
+    <t>700-1000</t>
+  </si>
+  <si>
+    <t>&gt;1000</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1088/1757-899X/471/9/092011</t>
+  </si>
+  <si>
+    <t>2019?</t>
+  </si>
+  <si>
+    <t>0-99</t>
+  </si>
+  <si>
+    <t>100-299</t>
+  </si>
+  <si>
+    <t>301-500</t>
+  </si>
+  <si>
+    <t>500-749</t>
+  </si>
+  <si>
+    <t>750-999</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-319-06523-6_2</t>
+  </si>
+  <si>
+    <t>http://resolver.tudelft.nl/uuid:04ec81b4-79cb-4fc2-a063-9a13c8eebe9d</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transportgeography.org/contents/chapter5/transportation-modes-modal-competition-modal-shift/modal-split-distance-passenger-united-states/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +159,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -537,20 +614,1053 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC3264E-9BD9-EA42-8323-43E4C578A4AD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>3.2</v>
+      </c>
+      <c r="C2">
+        <v>95.6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>100-SUM(B2:D2)</f>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.1</v>
+      </c>
+      <c r="C3">
+        <v>87.6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="0">100-SUM(B3:D3)</f>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>16.3</v>
+      </c>
+      <c r="C4">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.2999999999999972</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>43.7</v>
+      </c>
+      <c r="C5">
+        <v>49.4</v>
+      </c>
+      <c r="D5">
+        <v>2.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.3000000000000114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="C6">
+        <v>15.3</v>
+      </c>
+      <c r="D6">
+        <v>12.4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>45.2</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>41.4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>10.8</v>
+      </c>
+      <c r="C8">
+        <v>2.7</v>
+      </c>
+      <c r="D8">
+        <v>85.7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>26.730000000000004</v>
+      </c>
+      <c r="C9">
+        <v>73.27</v>
+      </c>
+      <c r="D9">
+        <f>100-SUM(B9:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2005</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>25.42</v>
+      </c>
+      <c r="C10">
+        <v>74.58</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D14" si="1">100-SUM(B10:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2005</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>41.07</v>
+      </c>
+      <c r="C11">
+        <v>50.29</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>8.64</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2005</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>62.499999999999993</v>
+      </c>
+      <c r="C12">
+        <v>12.32</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>25.180000000000007</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2005</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>30.950000000000003</v>
+      </c>
+      <c r="C13">
+        <v>5.89</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>63.16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2005</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>7.79</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>92.21</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2005</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{DEC91790-53C3-AB4F-A8DD-B28B7C542B33}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{F66A5C59-E344-3D42-9CB1-F0EBCB071248}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{54F031BF-2DFA-2540-B4BA-5BC25205EC31}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{03D2C1B0-61A1-F045-92AA-B4199AA8DCEE}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{5CB8A15E-6B59-CF43-9F3D-7A2A21D20B89}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{C8ED76BB-A0D2-A048-BC2E-107ABF153DEA}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{72F7C333-F5FD-0045-AFF1-CD486295E184}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{DC42553A-DD8E-FC48-9F76-99B4E8B97F45}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{D2A5D020-2688-8A4B-BC14-11FA2C6B4F53}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{0086C763-4662-F641-A9B6-0A76F70177E7}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{C2009088-92E7-6C49-8589-35365CC56644}"/>
+    <hyperlink ref="G12" r:id="rId12" xr:uid="{AC2D58E5-3839-AE4B-8742-C9E4FEACB840}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{66DC057A-9C37-964B-B0DA-6CFD642E2772}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7294FF-0B36-3B43-8960-C30E665FB955}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>2.57379646417632E-2</v>
+      </c>
+      <c r="C2">
+        <v>36.063178123873897</v>
+      </c>
+      <c r="D2">
+        <v>40.0525626433461</v>
+      </c>
+      <c r="E2">
+        <f>100-SUM(B2:D2)</f>
+        <v>23.858521268138247</v>
+      </c>
+      <c r="F2">
+        <v>2015</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>4.0420043582953298</v>
+      </c>
+      <c r="C3">
+        <v>37.020630408547298</v>
+      </c>
+      <c r="D3">
+        <v>46.063235319350902</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="0">100-SUM(B3:D3)</f>
+        <v>12.87412991380647</v>
+      </c>
+      <c r="F3">
+        <v>2015</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>15.1058974256315</v>
+      </c>
+      <c r="C4">
+        <v>31.994005914012298</v>
+      </c>
+      <c r="D4">
+        <v>50.079501713004497</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.820594947351708</v>
+      </c>
+      <c r="F4">
+        <v>2015</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>26.036811008985399</v>
+      </c>
+      <c r="C5">
+        <v>22.978282877390001</v>
+      </c>
+      <c r="D5">
+        <v>50.106097609800997</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.8788085038236062</v>
+      </c>
+      <c r="F5">
+        <v>2015</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>40.026252723934597</v>
+      </c>
+      <c r="C6">
+        <v>15.0261097352421</v>
+      </c>
+      <c r="D6">
+        <v>44.148616727389197</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.79902081343411169</v>
+      </c>
+      <c r="F6">
+        <v>2015</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>54.148673922866102</v>
+      </c>
+      <c r="C7">
+        <v>9.7878619758750904</v>
+      </c>
+      <c r="D7">
+        <v>36.063464101258802</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>62.154038858607002</v>
+      </c>
+      <c r="C8">
+        <v>4.6814497909506008</v>
+      </c>
+      <c r="D8">
+        <v>33.164511350442403</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2015</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>75.212624185679402</v>
+      </c>
+      <c r="C9">
+        <v>1.5697298657623029</v>
+      </c>
+      <c r="D9">
+        <v>23.2176459485583</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2015</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>80.159460989824893</v>
+      </c>
+      <c r="C10">
+        <v>1.6495175561517068</v>
+      </c>
+      <c r="D10">
+        <v>18.191021454023399</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2015</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>86.170133665829695</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>13.829866334170308</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2015</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{67915477-A864-A24E-81FD-D2D886706A70}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{F6A15B35-0FFD-B74A-897D-87BC17DF7D6C}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{432D5E00-9FB8-D24A-90E5-829FFE6ED8D4}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{6244C16D-A60A-F74C-A4EA-4561EB49FE48}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{D977C719-42AB-684D-95BF-447383CCC0FD}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{23C78D43-C469-4040-A174-A340DB74A963}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{C9700D16-948E-FA49-BC4F-BE8B703B9D82}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{AFFC3285-B0E0-044A-8988-890CEEBFE181}"/>
+    <hyperlink ref="G9" r:id="rId9" xr:uid="{B6BC568E-F0E8-224E-9FBB-7E78AAD2B0FD}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{4B92CE5A-7B89-4240-94B7-AC969FD3D6DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE46616-568A-D346-B6B1-8A0E294DFA3E}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>117.20888401330799</v>
+      </c>
+      <c r="B2">
+        <v>0.17058622566635501</v>
+      </c>
+      <c r="C2">
+        <v>11.3880112099519</v>
+      </c>
+      <c r="D2">
+        <v>95.326050168135495</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>167.56415578258901</v>
+      </c>
+      <c r="B3">
+        <v>7.1232350842009795E-2</v>
+      </c>
+      <c r="C3">
+        <v>16.2816145846685</v>
+      </c>
+      <c r="D3">
+        <v>95.906560665323397</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>239.56393955765901</v>
+      </c>
+      <c r="B4">
+        <v>0.43458366448531599</v>
+      </c>
+      <c r="C4">
+        <v>23.277052613233899</v>
+      </c>
+      <c r="D4">
+        <v>96.039978725801802</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>342.57073479653002</v>
+      </c>
+      <c r="B5">
+        <v>2.87301162088816</v>
+      </c>
+      <c r="C5">
+        <v>33.277574700006603</v>
+      </c>
+      <c r="D5">
+        <v>96.013011245492294</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>484.90753542963699</v>
+      </c>
+      <c r="B6">
+        <v>8.7186565220479793</v>
+      </c>
+      <c r="C6">
+        <v>47.575775629295897</v>
+      </c>
+      <c r="D6">
+        <v>96.233009111174795</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>651.34422753948604</v>
+      </c>
+      <c r="B7">
+        <v>16.209140304451299</v>
+      </c>
+      <c r="C7">
+        <v>68.017580164779304</v>
+      </c>
+      <c r="D7">
+        <v>96.478555116097695</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>827.19678608522997</v>
+      </c>
+      <c r="B8">
+        <v>23.597076694625201</v>
+      </c>
+      <c r="C8">
+        <v>97.236333466252802</v>
+      </c>
+      <c r="D8">
+        <v>96.069784888249103</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1028.6558207282801</v>
+      </c>
+      <c r="B9">
+        <v>30.840843515723702</v>
+      </c>
+      <c r="C9">
+        <v>139.002339901276</v>
+      </c>
+      <c r="D9">
+        <v>95.335985555617896</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1256.9896675454099</v>
+      </c>
+      <c r="B10">
+        <v>38.305757474509001</v>
+      </c>
+      <c r="C10">
+        <v>198.70306739734201</v>
+      </c>
+      <c r="D10">
+        <v>94.3424468073746</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1504.0451741873801</v>
+      </c>
+      <c r="B11">
+        <v>45.733740967204</v>
+      </c>
+      <c r="C11">
+        <v>284.01432474106201</v>
+      </c>
+      <c r="D11">
+        <v>92.251757412856904</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1787.0883580003499</v>
+      </c>
+      <c r="B12">
+        <v>53.152260609060399</v>
+      </c>
+      <c r="C12">
+        <v>403.01734967528898</v>
+      </c>
+      <c r="D12">
+        <v>87.6155290990027</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2130.8789075325499</v>
+      </c>
+      <c r="B13">
+        <v>60.706504740632298</v>
+      </c>
+      <c r="C13">
+        <v>565.803282475022</v>
+      </c>
+      <c r="D13">
+        <v>81.189090544186399</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2549.6990681622101</v>
+      </c>
+      <c r="B14">
+        <v>68.1575147372576</v>
+      </c>
+      <c r="C14">
+        <v>750.95807788376101</v>
+      </c>
+      <c r="D14">
+        <v>73.766105888977805</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3104.77426716734</v>
+      </c>
+      <c r="B15">
+        <v>75.652847480062704</v>
+      </c>
+      <c r="C15">
+        <v>962.38852398790004</v>
+      </c>
+      <c r="D15">
+        <v>66.404846877306994</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3970.8004205788802</v>
+      </c>
+      <c r="B16">
+        <v>83.184651829334896</v>
+      </c>
+      <c r="C16">
+        <v>1203.47046010336</v>
+      </c>
+      <c r="D16">
+        <v>59.112556333414901</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5465.8480219509902</v>
+      </c>
+      <c r="B17">
+        <v>90.092939647031002</v>
+      </c>
+      <c r="C17">
+        <v>1463.37386798801</v>
+      </c>
+      <c r="D17">
+        <v>52.039709566287797</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7818.5286252204796</v>
+      </c>
+      <c r="B18">
+        <v>95.783077992327406</v>
+      </c>
+      <c r="C18">
+        <v>1791.7547162292401</v>
+      </c>
+      <c r="D18">
+        <v>44.023612396790099</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9787.4368806297407</v>
+      </c>
+      <c r="B19">
+        <v>99.253039365587796</v>
+      </c>
+      <c r="C19">
+        <v>2209.2533480299498</v>
+      </c>
+      <c r="D19">
+        <v>36.009404432643798</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>2705.15571112106</v>
+      </c>
+      <c r="D20">
+        <v>28.5440500275426</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>3406.5140642407</v>
+      </c>
+      <c r="D21">
+        <v>21.000717474699499</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>4585.08008347743</v>
+      </c>
+      <c r="D22">
+        <v>13.56038917455</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>6505.1223671489997</v>
+      </c>
+      <c r="D23">
+        <v>7.1665183543681898</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>8881.4275509066592</v>
+      </c>
+      <c r="D24">
+        <v>2.1490356224971801</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{70639DC6-E75A-054C-9D9F-F1991040E7FB}"/>
+    <hyperlink ref="F3:F24" r:id="rId2" display="https://transportgeography.org/contents/chapter5/transportation-modes-modal-competition-modal-shift/modal-split-distance-passenger-united-states/ " xr:uid="{81847900-F917-204C-A665-127F75DC69DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4_aviation/modal_share/data/data.xlsx
+++ b/4_aviation/modal_share/data/data.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/modal_share/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844AB18-6295-1E47-8497-7566EEEFD134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C1DD6-12C6-EB49-B262-D87B26DEE175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="3" xr2:uid="{3D3106B3-D52F-F549-8C18-189FCB3EBB1B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{3D3106B3-D52F-F549-8C18-189FCB3EBB1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="freight" sheetId="1" r:id="rId1"/>
-    <sheet name="Japan" sheetId="2" r:id="rId2"/>
-    <sheet name="EU" sheetId="3" r:id="rId3"/>
-    <sheet name="USA" sheetId="4" r:id="rId4"/>
+    <sheet name="Japan" sheetId="2" r:id="rId1"/>
+    <sheet name="EU" sheetId="3" r:id="rId2"/>
+    <sheet name="USA" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,47 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
-  <si>
-    <t>country</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>share of air freight (by value)</t>
-  </si>
-  <si>
-    <t>share of air freight (by volume/weight)</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.icao.int/sustainability/economic-policy/Pages/Facts-and-Figures.aspx </t>
-  </si>
-  <si>
-    <t>colombia</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
     <t>distance</t>
   </si>
   <si>
-    <t>rail</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
@@ -141,6 +110,39 @@
   </si>
   <si>
     <t xml:space="preserve">https://transportgeography.org/contents/chapter5/transportation-modes-modal-competition-modal-shift/modal-split-distance-passenger-united-states/ </t>
+  </si>
+  <si>
+    <t>50-499</t>
+  </si>
+  <si>
+    <t>1000-1499</t>
+  </si>
+  <si>
+    <t>&gt;1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bts.dot.gov/sites/bts.dot.gov/files/legacy/publications/america_on_the_go/long_distance_transportation_patterns/pdf/entire.pdf </t>
+  </si>
+  <si>
+    <t>distance (air) [miles]</t>
+  </si>
+  <si>
+    <t>air [%]</t>
+  </si>
+  <si>
+    <t>distance (car) [miles]</t>
+  </si>
+  <si>
+    <t>car [%]</t>
+  </si>
+  <si>
+    <t>distance [km]</t>
+  </si>
+  <si>
+    <t>rail [%]</t>
+  </si>
+  <si>
+    <t>other [%]</t>
   </si>
 </sst>
 </file>
@@ -508,146 +510,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5743C5-9AF5-114C-80A1-66736DEAE099}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>2017</v>
-      </c>
-      <c r="C2">
-        <v>34.6</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2016</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0.48</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2016</v>
-      </c>
-      <c r="C4">
-        <v>47.7</v>
-      </c>
-      <c r="D4">
-        <v>0.7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>2020</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{38B7583D-C5B8-2B41-8914-DF8571DE7B3F}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{1D3D33EF-4337-5346-9F0A-F2CE36B0CA1C}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{9C3E3B4A-B21C-7F42-BD95-7BBA61AD12A4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC3264E-9BD9-EA42-8323-43E4C578A4AD}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>3.2</v>
@@ -663,15 +560,15 @@
         <v>1.2000000000000028</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>10.1</v>
@@ -687,15 +584,15 @@
         <v>2.3000000000000114</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>16.3</v>
@@ -711,15 +608,15 @@
         <v>3.2999999999999972</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>43.7</v>
@@ -735,15 +632,15 @@
         <v>4.3000000000000114</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>69.099999999999994</v>
@@ -759,15 +656,15 @@
         <v>3.2000000000000028</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>45.2</v>
@@ -783,15 +680,15 @@
         <v>3.4000000000000057</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>10.8</v>
@@ -807,15 +704,15 @@
         <v>0.79999999999999716</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>26.730000000000004</v>
@@ -834,12 +731,12 @@
         <v>2005</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>25.42</v>
@@ -858,12 +755,12 @@
         <v>2005</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>41.07</v>
@@ -882,12 +779,12 @@
         <v>2005</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>62.499999999999993</v>
@@ -906,12 +803,12 @@
         <v>2005</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>30.950000000000003</v>
@@ -930,12 +827,12 @@
         <v>2005</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>7.79</v>
@@ -954,7 +851,7 @@
         <v>2005</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -975,40 +872,41 @@
     <hyperlink ref="G14" r:id="rId13" xr:uid="{66DC057A-9C37-964B-B0DA-6CFD642E2772}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7294FF-0B36-3B43-8960-C30E665FB955}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1032,7 +930,7 @@
         <v>2015</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1056,7 +954,7 @@
         <v>2015</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1080,7 +978,7 @@
         <v>2015</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1104,7 +1002,7 @@
         <v>2015</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1128,7 +1026,7 @@
         <v>2015</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1152,7 +1050,7 @@
         <v>2015</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1176,7 +1074,7 @@
         <v>2015</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1200,7 +1098,7 @@
         <v>2015</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1224,7 +1122,7 @@
         <v>2015</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1248,7 +1146,7 @@
         <v>2015</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1268,31 +1166,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE46616-568A-D346-B6B1-8A0E294DFA3E}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1308,8 +1209,11 @@
       <c r="D2">
         <v>95.326050168135495</v>
       </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1325,8 +1229,11 @@
       <c r="D3">
         <v>95.906560665323397</v>
       </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1342,8 +1249,11 @@
       <c r="D4">
         <v>96.039978725801802</v>
       </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1359,8 +1269,11 @@
       <c r="D5">
         <v>96.013011245492294</v>
       </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1376,8 +1289,11 @@
       <c r="D6">
         <v>96.233009111174795</v>
       </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1393,8 +1309,11 @@
       <c r="D7">
         <v>96.478555116097695</v>
       </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1410,8 +1329,11 @@
       <c r="D8">
         <v>96.069784888249103</v>
       </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1427,8 +1349,11 @@
       <c r="D9">
         <v>95.335985555617896</v>
       </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1444,8 +1369,11 @@
       <c r="D10">
         <v>94.3424468073746</v>
       </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1461,8 +1389,11 @@
       <c r="D11">
         <v>92.251757412856904</v>
       </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1478,8 +1409,11 @@
       <c r="D12">
         <v>87.6155290990027</v>
       </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1495,8 +1429,11 @@
       <c r="D13">
         <v>81.189090544186399</v>
       </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1512,8 +1449,11 @@
       <c r="D14">
         <v>73.766105888977805</v>
       </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1529,8 +1469,11 @@
       <c r="D15">
         <v>66.404846877306994</v>
       </c>
+      <c r="E15">
+        <v>2000</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1546,8 +1489,11 @@
       <c r="D16">
         <v>59.112556333414901</v>
       </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1563,8 +1509,11 @@
       <c r="D17">
         <v>52.039709566287797</v>
       </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1580,8 +1529,11 @@
       <c r="D18">
         <v>44.023612396790099</v>
       </c>
+      <c r="E18">
+        <v>2000</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1597,8 +1549,11 @@
       <c r="D19">
         <v>36.009404432643798</v>
       </c>
+      <c r="E19">
+        <v>2000</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1608,8 +1563,11 @@
       <c r="D20">
         <v>28.5440500275426</v>
       </c>
+      <c r="E20">
+        <v>2000</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1619,8 +1577,11 @@
       <c r="D21">
         <v>21.000717474699499</v>
       </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1630,8 +1591,11 @@
       <c r="D22">
         <v>13.56038917455</v>
       </c>
+      <c r="E22">
+        <v>2000</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1641,8 +1605,11 @@
       <c r="D23">
         <v>7.1665183543681898</v>
       </c>
+      <c r="E23">
+        <v>2000</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1652,14 +1619,124 @@
       <c r="D24">
         <v>2.1490356224971801</v>
       </c>
+      <c r="E24">
+        <v>2000</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>95.133437990580802</v>
+      </c>
+      <c r="C32">
+        <v>1.72684458398744</v>
+      </c>
+      <c r="D32">
+        <v>2001</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>61.8524332810047</v>
+      </c>
+      <c r="C33">
+        <v>33.751962323390899</v>
+      </c>
+      <c r="D33">
+        <v>2001</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>42.229199372056499</v>
+      </c>
+      <c r="C34">
+        <v>54.945054945054899</v>
+      </c>
+      <c r="D34">
+        <v>2001</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>31.554160125588702</v>
+      </c>
+      <c r="C35">
+        <v>65.463108320251095</v>
+      </c>
+      <c r="D35">
+        <v>2001</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>14.913657770800601</v>
+      </c>
+      <c r="C36">
+        <v>81.789638932496004</v>
+      </c>
+      <c r="D36">
+        <v>2001</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{70639DC6-E75A-054C-9D9F-F1991040E7FB}"/>
     <hyperlink ref="F3:F24" r:id="rId2" display="https://transportgeography.org/contents/chapter5/transportation-modes-modal-competition-modal-shift/modal-split-distance-passenger-united-states/ " xr:uid="{81847900-F917-204C-A665-127F75DC69DA}"/>
+    <hyperlink ref="E32" r:id="rId3" xr:uid="{432AE11F-A430-E744-98AC-A35B4EFFE5E4}"/>
+    <hyperlink ref="E33" r:id="rId4" xr:uid="{F25BEB94-A813-5042-A75B-AB411E2CCC08}"/>
+    <hyperlink ref="E34" r:id="rId5" xr:uid="{BD1FCC61-024C-EC49-B987-CF60AAA867E4}"/>
+    <hyperlink ref="E36" r:id="rId6" xr:uid="{AB7D5484-B196-3D46-BFDD-DBC95472C366}"/>
+    <hyperlink ref="E35" r:id="rId7" xr:uid="{35C73D1D-4CA2-6646-9C49-A9C00556189F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4_aviation/modal_share/data/data.xlsx
+++ b/4_aviation/modal_share/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/modal_share/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C1DD6-12C6-EB49-B262-D87B26DEE175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382413BA-2E8A-1C46-8A63-4B176A9DE5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{3D3106B3-D52F-F549-8C18-189FCB3EBB1B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{3D3106B3-D52F-F549-8C18-189FCB3EBB1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Japan" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t>year</t>
   </si>
@@ -55,9 +55,6 @@
     <t>air</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>0-100</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>http://resolver.tudelft.nl/uuid:04ec81b4-79cb-4fc2-a063-9a13c8eebe9d</t>
   </si>
   <si>
-    <t>train</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://transportgeography.org/contents/chapter5/transportation-modes-modal-competition-modal-shift/modal-split-distance-passenger-united-states/ </t>
   </si>
   <si>
@@ -143,6 +137,15 @@
   </si>
   <si>
     <t>other [%]</t>
+  </si>
+  <si>
+    <t>distance bin [km]</t>
+  </si>
+  <si>
+    <t>distance mean [km]</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -511,20 +514,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC3264E-9BD9-EA42-8323-43E4C578A4AD}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
@@ -533,343 +536,386 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+      <c r="D2">
+        <v>95.6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>100-SUM(C2:E2)</f>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>3.2</v>
-      </c>
-      <c r="C2">
-        <v>95.6</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>100-SUM(B2:D2)</f>
-        <v>1.2000000000000028</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>10.1</v>
+      </c>
+      <c r="D3">
+        <v>87.6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="0">100-SUM(C3:E3)</f>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>10.1</v>
-      </c>
-      <c r="C3">
-        <v>87.6</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">100-SUM(B3:D3)</f>
-        <v>2.3000000000000114</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4">
         <v>16.3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>80.400000000000006</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>3.2999999999999972</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
         <v>43.7</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>49.4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.6</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>4.3000000000000114</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
+        <v>600</v>
+      </c>
+      <c r="C6">
         <v>69.099999999999994</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>15.3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>12.4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>3.2000000000000028</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
+        <f>(700+1000)/2</f>
+        <v>850</v>
+      </c>
+      <c r="C7">
         <v>45.2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>41.4</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>3.4000000000000057</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
         <v>10.8</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2.7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>85.7</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>26.730000000000004</v>
+      </c>
+      <c r="D9">
+        <v>73.27</v>
+      </c>
+      <c r="E9">
+        <f>100-SUM(C9:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2005</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>26.730000000000004</v>
-      </c>
-      <c r="C9">
-        <v>73.27</v>
-      </c>
-      <c r="D9">
-        <f>100-SUM(B9:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>25.42</v>
+      </c>
+      <c r="D10">
+        <v>74.58</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E14" si="1">100-SUM(C10:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>2005</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>25.42</v>
-      </c>
-      <c r="C10">
-        <v>74.58</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D14" si="1">100-SUM(B10:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2005</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
         <v>41.07</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>50.29</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>8.64</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>2005</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
         <v>62.499999999999993</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>12.32</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>25.180000000000007</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>2005</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
         <v>30.950000000000003</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5.89</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>63.16</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>2005</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
         <v>7.79</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>92.21</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>2005</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{DEC91790-53C3-AB4F-A8DD-B28B7C542B33}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{F66A5C59-E344-3D42-9CB1-F0EBCB071248}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{54F031BF-2DFA-2540-B4BA-5BC25205EC31}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{03D2C1B0-61A1-F045-92AA-B4199AA8DCEE}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{5CB8A15E-6B59-CF43-9F3D-7A2A21D20B89}"/>
-    <hyperlink ref="G5" r:id="rId6" xr:uid="{C8ED76BB-A0D2-A048-BC2E-107ABF153DEA}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{72F7C333-F5FD-0045-AFF1-CD486295E184}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{DC42553A-DD8E-FC48-9F76-99B4E8B97F45}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{D2A5D020-2688-8A4B-BC14-11FA2C6B4F53}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{0086C763-4662-F641-A9B6-0A76F70177E7}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{C2009088-92E7-6C49-8589-35365CC56644}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{AC2D58E5-3839-AE4B-8742-C9E4FEACB840}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{66DC057A-9C37-964B-B0DA-6CFD642E2772}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{DEC91790-53C3-AB4F-A8DD-B28B7C542B33}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{F66A5C59-E344-3D42-9CB1-F0EBCB071248}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{54F031BF-2DFA-2540-B4BA-5BC25205EC31}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{03D2C1B0-61A1-F045-92AA-B4199AA8DCEE}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{5CB8A15E-6B59-CF43-9F3D-7A2A21D20B89}"/>
+    <hyperlink ref="H5" r:id="rId6" xr:uid="{C8ED76BB-A0D2-A048-BC2E-107ABF153DEA}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{72F7C333-F5FD-0045-AFF1-CD486295E184}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{DC42553A-DD8E-FC48-9F76-99B4E8B97F45}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{D2A5D020-2688-8A4B-BC14-11FA2C6B4F53}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{0086C763-4662-F641-A9B6-0A76F70177E7}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{C2009088-92E7-6C49-8589-35365CC56644}"/>
+    <hyperlink ref="H12" r:id="rId12" xr:uid="{AC2D58E5-3839-AE4B-8742-C9E4FEACB840}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{66DC057A-9C37-964B-B0DA-6CFD642E2772}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -880,27 +926,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7294FF-0B36-3B43-8960-C30E665FB955}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H19" activeCellId="1" sqref="E16 H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -930,7 +976,7 @@
         <v>2015</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -954,7 +1000,7 @@
         <v>2015</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -978,7 +1024,7 @@
         <v>2015</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1002,7 +1048,7 @@
         <v>2015</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1026,7 +1072,7 @@
         <v>2015</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1050,7 +1096,7 @@
         <v>2015</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1074,7 +1120,7 @@
         <v>2015</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1098,7 +1144,7 @@
         <v>2015</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1122,7 +1168,7 @@
         <v>2015</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1146,7 +1192,7 @@
         <v>2015</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1178,16 +1224,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1213,7 +1259,7 @@
         <v>2000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1233,7 +1279,7 @@
         <v>2000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1253,7 +1299,7 @@
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1273,7 +1319,7 @@
         <v>2000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1293,7 +1339,7 @@
         <v>2000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1313,7 +1359,7 @@
         <v>2000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1333,7 +1379,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1353,7 +1399,7 @@
         <v>2000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1373,7 +1419,7 @@
         <v>2000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1393,7 +1439,7 @@
         <v>2000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1413,7 +1459,7 @@
         <v>2000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1433,7 +1479,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1453,7 +1499,7 @@
         <v>2000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1473,7 +1519,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1493,7 +1539,7 @@
         <v>2000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1513,7 +1559,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1533,7 +1579,7 @@
         <v>2000</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1553,7 +1599,7 @@
         <v>2000</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1567,7 +1613,7 @@
         <v>2000</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1581,7 +1627,7 @@
         <v>2000</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1595,7 +1641,7 @@
         <v>2000</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1609,7 +1655,7 @@
         <v>2000</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1623,7 +1669,7 @@
         <v>2000</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1645,7 +1691,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>95.133437990580802</v>
@@ -1657,12 +1703,12 @@
         <v>2001</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>61.8524332810047</v>
@@ -1674,12 +1720,12 @@
         <v>2001</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>42.229199372056499</v>
@@ -1691,12 +1737,12 @@
         <v>2001</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>31.554160125588702</v>
@@ -1708,12 +1754,12 @@
         <v>2001</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>14.913657770800601</v>
@@ -1725,7 +1771,7 @@
         <v>2001</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/4_aviation/modal_share/data/data.xlsx
+++ b/4_aviation/modal_share/data/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/modal_share/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382413BA-2E8A-1C46-8A63-4B176A9DE5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C93A79-14EF-5E41-B48E-EDEFC9DD899D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{3D3106B3-D52F-F549-8C18-189FCB3EBB1B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{3D3106B3-D52F-F549-8C18-189FCB3EBB1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Japan" sheetId="2" r:id="rId1"/>
     <sheet name="EU" sheetId="3" r:id="rId2"/>
     <sheet name="USA" sheetId="4" r:id="rId3"/>
+    <sheet name="other" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
   <si>
     <t>year</t>
   </si>
@@ -196,9 +197,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -517,7 +519,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,9 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7294FF-0B36-3B43-8960-C30E665FB955}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H19" activeCellId="1" sqref="E16 H19"/>
-    </sheetView>
+    <sheetView zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1214,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE46616-568A-D346-B6B1-8A0E294DFA3E}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,16 +1243,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>117.20888401330799</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.17058622566635501</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>11.3880112099519</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>95.326050168135495</v>
       </c>
       <c r="E2">
@@ -1263,16 +1263,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>167.56415578258901</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>7.1232350842009795E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>16.2816145846685</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>95.906560665323397</v>
       </c>
       <c r="E3">
@@ -1283,16 +1283,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>239.56393955765901</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.43458366448531599</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>23.277052613233899</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>96.039978725801802</v>
       </c>
       <c r="E4">
@@ -1303,16 +1303,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>342.57073479653002</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2.87301162088816</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>33.277574700006603</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>96.013011245492294</v>
       </c>
       <c r="E5">
@@ -1323,16 +1323,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>484.90753542963699</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>8.7186565220479793</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>47.575775629295897</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>96.233009111174795</v>
       </c>
       <c r="E6">
@@ -1343,16 +1343,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>651.34422753948604</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>16.209140304451299</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>68.017580164779304</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>96.478555116097695</v>
       </c>
       <c r="E7">
@@ -1363,16 +1363,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>827.19678608522997</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>23.597076694625201</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>97.236333466252802</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>96.069784888249103</v>
       </c>
       <c r="E8">
@@ -1383,16 +1383,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>1028.6558207282801</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>30.840843515723702</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>139.002339901276</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>95.335985555617896</v>
       </c>
       <c r="E9">
@@ -1403,16 +1403,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>1256.9896675454099</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>38.305757474509001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>198.70306739734201</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>94.3424468073746</v>
       </c>
       <c r="E10">
@@ -1423,16 +1423,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>1504.0451741873801</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>45.733740967204</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>284.01432474106201</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>92.251757412856904</v>
       </c>
       <c r="E11">
@@ -1443,16 +1443,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>1787.0883580003499</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>53.152260609060399</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>403.01734967528898</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>87.6155290990027</v>
       </c>
       <c r="E12">
@@ -1463,16 +1463,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>2130.8789075325499</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>60.706504740632298</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>565.803282475022</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>81.189090544186399</v>
       </c>
       <c r="E13">
@@ -1483,16 +1483,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>2549.6990681622101</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>68.1575147372576</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>750.95807788376101</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>73.766105888977805</v>
       </c>
       <c r="E14">
@@ -1503,16 +1503,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>3104.77426716734</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>75.652847480062704</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>962.38852398790004</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>66.404846877306994</v>
       </c>
       <c r="E15">
@@ -1523,16 +1523,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>3970.8004205788802</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>83.184651829334896</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1203.47046010336</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>59.112556333414901</v>
       </c>
       <c r="E16">
@@ -1543,16 +1543,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>5465.8480219509902</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>90.092939647031002</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1463.37386798801</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>52.039709566287797</v>
       </c>
       <c r="E17">
@@ -1563,16 +1563,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>7818.5286252204796</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>95.783077992327406</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>1791.7547162292401</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>44.023612396790099</v>
       </c>
       <c r="E18">
@@ -1583,16 +1583,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>9787.4368806297407</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>99.253039365587796</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>2209.2533480299498</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>36.009404432643798</v>
       </c>
       <c r="E19">
@@ -1603,10 +1603,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C20">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2">
         <v>2705.15571112106</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>28.5440500275426</v>
       </c>
       <c r="E20">
@@ -1617,10 +1623,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C21">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
         <v>3406.5140642407</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>21.000717474699499</v>
       </c>
       <c r="E21">
@@ -1631,10 +1643,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C22">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
         <v>4585.08008347743</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>13.56038917455</v>
       </c>
       <c r="E22">
@@ -1645,10 +1663,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2">
         <v>6505.1223671489997</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>7.1665183543681898</v>
       </c>
       <c r="E23">
@@ -1659,10 +1683,16 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
         <v>8881.4275509066592</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>2.1490356224971801</v>
       </c>
       <c r="E24">
@@ -1670,119 +1700,137 @@
       </c>
       <c r="F24" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32">
-        <v>95.133437990580802</v>
-      </c>
-      <c r="C32">
-        <v>1.72684458398744</v>
-      </c>
-      <c r="D32">
-        <v>2001</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33">
-        <v>61.8524332810047</v>
-      </c>
-      <c r="C33">
-        <v>33.751962323390899</v>
-      </c>
-      <c r="D33">
-        <v>2001</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34">
-        <v>42.229199372056499</v>
-      </c>
-      <c r="C34">
-        <v>54.945054945054899</v>
-      </c>
-      <c r="D34">
-        <v>2001</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35">
-        <v>31.554160125588702</v>
-      </c>
-      <c r="C35">
-        <v>65.463108320251095</v>
-      </c>
-      <c r="D35">
-        <v>2001</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36">
-        <v>14.913657770800601</v>
-      </c>
-      <c r="C36">
-        <v>81.789638932496004</v>
-      </c>
-      <c r="D36">
-        <v>2001</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{70639DC6-E75A-054C-9D9F-F1991040E7FB}"/>
     <hyperlink ref="F3:F24" r:id="rId2" display="https://transportgeography.org/contents/chapter5/transportation-modes-modal-competition-modal-shift/modal-split-distance-passenger-united-states/ " xr:uid="{81847900-F917-204C-A665-127F75DC69DA}"/>
-    <hyperlink ref="E32" r:id="rId3" xr:uid="{432AE11F-A430-E744-98AC-A35B4EFFE5E4}"/>
-    <hyperlink ref="E33" r:id="rId4" xr:uid="{F25BEB94-A813-5042-A75B-AB411E2CCC08}"/>
-    <hyperlink ref="E34" r:id="rId5" xr:uid="{BD1FCC61-024C-EC49-B987-CF60AAA867E4}"/>
-    <hyperlink ref="E36" r:id="rId6" xr:uid="{AB7D5484-B196-3D46-BFDD-DBC95472C366}"/>
-    <hyperlink ref="E35" r:id="rId7" xr:uid="{35C73D1D-4CA2-6646-9C49-A9C00556189F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB71A97-4190-924A-BB5E-D8D79156F4AC}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>95.133437990580802</v>
+      </c>
+      <c r="C2">
+        <v>1.72684458398744</v>
+      </c>
+      <c r="D2">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>61.8524332810047</v>
+      </c>
+      <c r="C3">
+        <v>33.751962323390899</v>
+      </c>
+      <c r="D3">
+        <v>2001</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>42.229199372056499</v>
+      </c>
+      <c r="C4">
+        <v>54.945054945054899</v>
+      </c>
+      <c r="D4">
+        <v>2001</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>31.554160125588702</v>
+      </c>
+      <c r="C5">
+        <v>65.463108320251095</v>
+      </c>
+      <c r="D5">
+        <v>2001</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>14.913657770800601</v>
+      </c>
+      <c r="C6">
+        <v>81.789638932496004</v>
+      </c>
+      <c r="D6">
+        <v>2001</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{432AE11F-A430-E744-98AC-A35B4EFFE5E4}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F25BEB94-A813-5042-A75B-AB411E2CCC08}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{BD1FCC61-024C-EC49-B987-CF60AAA867E4}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{AB7D5484-B196-3D46-BFDD-DBC95472C366}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{35C73D1D-4CA2-6646-9C49-A9C00556189F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
